--- a/Homework 2/Homework 2.xlsx
+++ b/Homework 2/Homework 2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Problem</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>&gt;68 million</t>
+  </si>
+  <si>
+    <t>&gt;14 million</t>
+  </si>
+  <si>
+    <t>&gt;20 million</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -412,6 +418,9 @@
       <c r="C3" s="1">
         <v>125</v>
       </c>
+      <c r="D3" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
@@ -420,6 +429,9 @@
       <c r="C4" s="1">
         <v>208149</v>
       </c>
+      <c r="D4" s="1">
+        <v>134358</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
@@ -428,10 +440,16 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
